--- a/biology/Botanique/Asperge_blanche_de_Belgique/Asperge_blanche_de_Belgique.xlsx
+++ b/biology/Botanique/Asperge_blanche_de_Belgique/Asperge_blanche_de_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asperge blanche de Belgique est un cultivar d'asperge originaire de Belgique. Ce cultivar belge est très réputé pour sa finesse. Il est exporté comme produit alimentaire de luxe dans de nombreux pays.[réf. nécessaire] Ce sont les plus grandes asperges du commerce.[réf. nécessaire]
  Portail de la Belgique   Portail de la botanique                    </t>
